--- a/Arquivos/Saida.xlsx
+++ b/Arquivos/Saida.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>Base</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>E-MAIL</t>
+  </si>
+  <si>
+    <t>COD</t>
   </si>
   <si>
     <t>Base A</t>
@@ -444,16 +447,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,212 +475,215 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>51</v>
@@ -682,257 +691,257 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30">
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30">
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31">
         <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/Saida.xlsx
+++ b/Arquivos/Saida.xlsx
@@ -449,14 +449,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -492,6 +490,9 @@
       <c r="D2">
         <v>10</v>
       </c>
+      <c r="F2">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -506,6 +507,9 @@
       <c r="D3">
         <v>20</v>
       </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -520,6 +524,9 @@
       <c r="D4">
         <v>30</v>
       </c>
+      <c r="F4">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -534,6 +541,9 @@
       <c r="D5">
         <v>40</v>
       </c>
+      <c r="F5">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -548,6 +558,9 @@
       <c r="D6">
         <v>50</v>
       </c>
+      <c r="F6">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -562,6 +575,9 @@
       <c r="D7">
         <v>60</v>
       </c>
+      <c r="F7">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -576,6 +592,9 @@
       <c r="D8">
         <v>70</v>
       </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -590,6 +609,9 @@
       <c r="D9">
         <v>80</v>
       </c>
+      <c r="F9">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
@@ -604,6 +626,9 @@
       <c r="D10">
         <v>90</v>
       </c>
+      <c r="F10">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -618,6 +643,9 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -632,6 +660,9 @@
       <c r="D12">
         <v>11</v>
       </c>
+      <c r="F12">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -646,6 +677,9 @@
       <c r="D13">
         <v>21</v>
       </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -660,6 +694,9 @@
       <c r="D14">
         <v>31</v>
       </c>
+      <c r="F14">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
@@ -674,6 +711,9 @@
       <c r="D15">
         <v>41</v>
       </c>
+      <c r="F15">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -687,6 +727,9 @@
       </c>
       <c r="D16">
         <v>51</v>
+      </c>
+      <c r="F16">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5">
